--- a/Users.xlsx
+++ b/Users.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">brianna.spendlove@hgv.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donna Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donna.davis@hgv.com</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -224,7 +230,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -242,6 +261,7 @@
     <hyperlink ref="B2" r:id="rId1" display="marko.majkic@hgv.com"/>
     <hyperlink ref="B3" r:id="rId2" display="nellie.solis@hgv.com"/>
     <hyperlink ref="B4" r:id="rId3" display="brianna.spendlove@hgv.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="donna.davis@hgv.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Users.xlsx
+++ b/Users.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t xml:space="preserve">User</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">golive2025</t>
   </si>
   <si>
-    <t xml:space="preserve">cancun, boulevard, elara</t>
+    <t xml:space="preserve">cancun, lvb, elara</t>
   </si>
   <si>
     <t xml:space="preserve">Nellie Solis</t>
@@ -62,6 +62,33 @@
   </si>
   <si>
     <t xml:space="preserve">donna.davis@hgv.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jairo.Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jairo.contreras@hgv.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miriam Ghiasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miriam.ghiasi@hgv.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lvb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annie Solseng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annie.solseng@hgv.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elara</t>
   </si>
 </sst>
 </file>
@@ -71,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,6 +120,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,8 +170,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,7 +199,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -244,9 +281,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -262,6 +338,9 @@
     <hyperlink ref="B3" r:id="rId2" display="nellie.solis@hgv.com"/>
     <hyperlink ref="B4" r:id="rId3" display="brianna.spendlove@hgv.com"/>
     <hyperlink ref="B5" r:id="rId4" display="donna.davis@hgv.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="jairo.contreras@hgv.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="miriam.ghiasi@hgv.com"/>
+    <hyperlink ref="B8" r:id="rId7" display="annie.solseng@hgv.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
